--- a/data/Everything.xlsx
+++ b/data/Everything.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quiz\ZChineseP\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quiz\AChineseP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CF043C-4BAE-4E0F-8F2E-B9427F2730B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7ED65E-32E0-4E76-8202-12D2EB5F9661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13260" xr2:uid="{97CBE051-57A5-41E3-87DA-2837D7117692}"/>
   </bookViews>
@@ -37,13 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
-  <si>
-    <t>拙</t>
-  </si>
-  <si>
-    <t>克</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>word_id</t>
   </si>
@@ -57,90 +51,6 @@
     <t>category_id</t>
   </si>
   <si>
-    <t>笨拙</t>
-  </si>
-  <si>
-    <t>跌</t>
-  </si>
-  <si>
-    <t>膽怯</t>
-  </si>
-  <si>
-    <t>怯</t>
-  </si>
-  <si>
-    <t>頻繁</t>
-  </si>
-  <si>
-    <t>繁</t>
-  </si>
-  <si>
-    <t>喘</t>
-  </si>
-  <si>
-    <t>歪</t>
-  </si>
-  <si>
-    <t>試</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>啓</t>
-  </si>
-  <si>
-    <t>獲</t>
-  </si>
-  <si>
-    <t>益</t>
-  </si>
-  <si>
-    <t>舉辦</t>
-  </si>
-  <si>
-    <t>戰戰兢兢</t>
-  </si>
-  <si>
-    <t>跌倒</t>
-  </si>
-  <si>
-    <t>失誤</t>
-  </si>
-  <si>
-    <t>氣喘吁吁</t>
-  </si>
-  <si>
-    <t>東歪西倒</t>
-  </si>
-  <si>
-    <t>不禁</t>
-  </si>
-  <si>
-    <t>張皇失措</t>
-  </si>
-  <si>
-    <t>無動於衷</t>
-  </si>
-  <si>
-    <t>無可奈何</t>
-  </si>
-  <si>
-    <t>克服</t>
-  </si>
-  <si>
-    <t>恍然大悟</t>
-  </si>
-  <si>
-    <t>否則</t>
-  </si>
-  <si>
-    <t>啓示</t>
-  </si>
-  <si>
-    <t>獲益良多</t>
-  </si>
-  <si>
     <t>list_name</t>
   </si>
   <si>
@@ -168,91 +78,253 @@
     <t>第八課</t>
   </si>
   <si>
-    <t>差</t>
-  </si>
-  <si>
-    <t>逛</t>
-  </si>
-  <si>
-    <t>炸</t>
-  </si>
-  <si>
-    <t>蔬</t>
-  </si>
-  <si>
-    <t>綴</t>
-  </si>
-  <si>
-    <t>估</t>
-  </si>
-  <si>
-    <t>鋪</t>
-  </si>
-  <si>
-    <t>暫</t>
-  </si>
-  <si>
-    <t>燃</t>
-  </si>
-  <si>
-    <t>恢</t>
-  </si>
-  <si>
-    <t>曳</t>
-  </si>
-  <si>
-    <t>梢</t>
-  </si>
-  <si>
-    <t>出差</t>
-  </si>
-  <si>
-    <t>蔬菜</t>
-  </si>
-  <si>
-    <t>點綴</t>
-  </si>
-  <si>
-    <t>估計</t>
-  </si>
-  <si>
-    <t>暫時</t>
-  </si>
-  <si>
-    <t>充當</t>
-  </si>
-  <si>
-    <t>點燃</t>
-  </si>
-  <si>
-    <t>意外</t>
-  </si>
-  <si>
-    <t>跳躍</t>
-  </si>
-  <si>
-    <t>恢復</t>
-  </si>
-  <si>
-    <t>搖曳</t>
-  </si>
-  <si>
-    <t>花樣百出</t>
-  </si>
-  <si>
-    <t>喜上眉梢</t>
-  </si>
-  <si>
-    <t>催促</t>
-  </si>
-  <si>
-    <t>既然</t>
-  </si>
-  <si>
-    <t>可惜</t>
-  </si>
-  <si>
-    <t>四腳朝天</t>
+    <t>丟</t>
+  </si>
+  <si>
+    <t>然</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>平</t>
+  </si>
+  <si>
+    <t>此</t>
+  </si>
+  <si>
+    <t>仔</t>
+  </si>
+  <si>
+    <t>檢</t>
+  </si>
+  <si>
+    <t>查</t>
+  </si>
+  <si>
+    <t>尺</t>
+  </si>
+  <si>
+    <t>助</t>
+  </si>
+  <si>
+    <t>已</t>
+  </si>
+  <si>
+    <t>經</t>
+  </si>
+  <si>
+    <t>鉛筆</t>
+  </si>
+  <si>
+    <t>橡皮擦</t>
+  </si>
+  <si>
+    <t>當然</t>
+  </si>
+  <si>
+    <t>所以</t>
+  </si>
+  <si>
+    <t>每天</t>
+  </si>
+  <si>
+    <t>趕緊</t>
+  </si>
+  <si>
+    <t>怎麽</t>
+  </si>
+  <si>
+    <t>平安</t>
+  </si>
+  <si>
+    <t>文具盒</t>
+  </si>
+  <si>
+    <t>從此</t>
+  </si>
+  <si>
+    <t>仔細</t>
+  </si>
+  <si>
+    <t>檢查</t>
+  </si>
+  <si>
+    <t>尺子</t>
+  </si>
+  <si>
+    <t>所有</t>
+  </si>
+  <si>
+    <t>助手</t>
+  </si>
+  <si>
+    <t>已經</t>
+  </si>
+  <si>
+    <t>鐘</t>
+  </si>
+  <si>
+    <t>哈</t>
+  </si>
+  <si>
+    <t>等</t>
+  </si>
+  <si>
+    <t>字</t>
+  </si>
+  <si>
+    <t>公</t>
+  </si>
+  <si>
+    <t>共</t>
+  </si>
+  <si>
+    <t>汽</t>
+  </si>
+  <si>
+    <t>決</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>座</t>
+  </si>
+  <si>
+    <t>位</t>
+  </si>
+  <si>
+    <t>非</t>
+  </si>
+  <si>
+    <t>鬧鐘</t>
+  </si>
+  <si>
+    <t>哈欠</t>
+  </si>
+  <si>
+    <t>心想</t>
+  </si>
+  <si>
+    <t>遲到</t>
+  </si>
+  <si>
+    <t>起來</t>
+  </si>
+  <si>
+    <t>過去</t>
+  </si>
+  <si>
+    <t>公共汽車</t>
+  </si>
+  <si>
+    <t>影子</t>
+  </si>
+  <si>
+    <t>決定</t>
+  </si>
+  <si>
+    <t>上課</t>
+  </si>
+  <si>
+    <t>座位</t>
+  </si>
+  <si>
+    <t>手錶</t>
+  </si>
+  <si>
+    <t>非常</t>
+  </si>
+  <si>
+    <t>後悔</t>
+  </si>
+  <si>
+    <t>讀</t>
+  </si>
+  <si>
+    <t>教</t>
+  </si>
+  <si>
+    <t>室</t>
+  </si>
+  <si>
+    <t>班</t>
+  </si>
+  <si>
+    <t>聲</t>
+  </si>
+  <si>
+    <t>音</t>
+  </si>
+  <si>
+    <t>互相</t>
+  </si>
+  <si>
+    <t>互</t>
+  </si>
+  <si>
+    <t>相</t>
+  </si>
+  <si>
+    <t>課</t>
+  </si>
+  <si>
+    <t>間</t>
+  </si>
+  <si>
+    <t>熱</t>
+  </si>
+  <si>
+    <t>情</t>
+  </si>
+  <si>
+    <t>讀書</t>
+  </si>
+  <si>
+    <t>陌生</t>
+  </si>
+  <si>
+    <t>教室</t>
+  </si>
+  <si>
+    <t>全班</t>
+  </si>
+  <si>
+    <t>友善</t>
+  </si>
+  <si>
+    <t>聲音</t>
+  </si>
+  <si>
+    <t>以後</t>
+  </si>
+  <si>
+    <t>幫助</t>
+  </si>
+  <si>
+    <t>真誠</t>
+  </si>
+  <si>
+    <t>下課</t>
+  </si>
+  <si>
+    <t>包圍</t>
+  </si>
+  <si>
+    <t>作業</t>
+  </si>
+  <si>
+    <t>洗手間</t>
+  </si>
+  <si>
+    <t>清楚</t>
+  </si>
+  <si>
+    <t>友好</t>
+  </si>
+  <si>
+    <t>熱情</t>
   </si>
 </sst>
 </file>
@@ -631,26 +703,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD7761B-4BFF-4633-8F81-F9821C6B14BA}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68:D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -658,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -672,7 +744,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -686,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -700,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -714,7 +786,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -728,7 +800,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -742,7 +814,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -756,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -770,7 +842,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -784,7 +856,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -798,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -812,7 +884,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -826,7 +898,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -840,7 +912,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -854,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -868,7 +940,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -882,7 +954,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -896,7 +968,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -910,7 +982,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -924,7 +996,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -938,7 +1010,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -952,7 +1024,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -966,7 +1038,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -980,7 +1052,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -994,7 +1066,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1008,7 +1080,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1022,7 +1094,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1036,7 +1108,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1050,13 +1122,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1064,13 +1136,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1078,13 +1150,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1093,7 +1165,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1104,11 +1176,11 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
-        <f t="shared" ref="A34:A60" si="0">A33+1</f>
+        <f t="shared" ref="A34:A84" si="0">A33+1</f>
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -1123,7 +1195,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -1138,7 +1210,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1153,7 +1225,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1168,7 +1240,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -1183,7 +1255,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -1198,7 +1270,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -1213,7 +1285,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -1228,13 +1300,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1243,13 +1315,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1258,13 +1330,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1273,7 +1345,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -1288,7 +1360,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -1303,7 +1375,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -1318,7 +1390,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -1333,7 +1405,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -1348,7 +1420,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -1363,7 +1435,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -1378,7 +1450,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -1393,7 +1465,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -1408,7 +1480,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -1423,7 +1495,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -1438,13 +1510,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -1453,13 +1525,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -1468,13 +1540,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -1483,13 +1555,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -1498,12 +1570,372 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60">
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
         <v>2</v>
       </c>
     </row>
@@ -1524,10 +1956,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1535,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1543,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1551,7 +1983,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1559,7 +1991,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1567,7 +1999,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1575,7 +2007,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1583,7 +2015,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1591,7 +2023,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
